--- a/Lab08/Lab8.xlsx
+++ b/Lab08/Lab8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive-Macau University of Science and Technology\OneDrive - Macau University of Science and Technology\3rd Yr. in MUST\EIE341 Analog Circuit Experiment\Experiment_08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\94384\Desktop\EIE341_Analog_Circuit_Report\Lab08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B18A34-F006-4CC3-BA67-F065F6D1C7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872DCB3A-8630-45A9-A203-A6577B6C23B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="360" windowWidth="22065" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17025" yWindow="2805" windowWidth="10320" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Vi</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,7 +98,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.</t>
+    <t>I_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_{DS}Theo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,6 +539,186 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>347760</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>157065</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12240" cy="9000"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="8" name="Ink 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF7D33E-0B89-41A3-B9E1-54ADD1D7F413}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1033560" y="338040"/>
+            <a:ext cx="12240" cy="9000"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{685D8D8B-5E02-9835-EDA3-9636905CC4DD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1027440" y="331920"/>
+              <a:ext cx="24480" cy="21240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>347760</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>157065</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12240" cy="9000"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="9" name="Ink 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35732633-0FB3-4B5F-B284-3A76C9ED2C9A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1033560" y="338040"/>
+            <a:ext cx="12240" cy="9000"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{685D8D8B-5E02-9835-EDA3-9636905CC4DD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1027440" y="331920"/>
+              <a:ext cx="24480" cy="21240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>347760</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>157065</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12240" cy="9000"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="10" name="Ink 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A45DABB5-E37A-4D5D-9794-EC75709A4EE3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1033560" y="338040"/>
+            <a:ext cx="12240" cy="9000"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{685D8D8B-5E02-9835-EDA3-9636905CC4DD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1027440" y="331920"/>
+              <a:ext cx="24480" cy="21240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -690,6 +874,87 @@
         </inkml:channelProperties>
       </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2024-11-07T01:15:15.668"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 24 3682,'0'0'7267,"6"0"-7267,1 0-192,3 0-160,-3-12-321,-4 0-3456</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-12-27T09:50:42.561"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 24 3682,'0'0'7267,"6"0"-7267,1 0-192,3 0-160,-3-12-321,-4 0-3456</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-12-27T09:50:42.565"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 24 3682,'0'0'7267,"6"0"-7267,1 0-192,3 0-160,-3-12-321,-4 0-3456</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-12-27T09:50:42.567"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -965,11 +1230,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1073,18 +1341,21 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
+      <c r="C4">
+        <v>12</v>
       </c>
       <c r="D4">
         <v>12</v>
       </c>
       <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
         <v>12</v>
       </c>
       <c r="G4">
@@ -1096,7 +1367,7 @@
         <v>11.906000000000001</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:K4" si="0">$A$2-$B$2*$D$2*(I3 - $C$2)^2</f>
+        <f t="shared" ref="I4:J4" si="0">$A$2-$B$2*$D$2*(I3 - $C$2)^2</f>
         <v>10.642639999999998</v>
       </c>
       <c r="J4">
@@ -1104,47 +1375,62 @@
         <v>7.3939999999999975</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K4:M4" si="1">12-470*0.08*((K3 - 1.4)^2)</f>
         <v>4.0438399999999932</v>
       </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999996</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>1.0358399999999985</v>
+      </c>
       <c r="N4">
-        <f>$A$2-$B$2*$D$2*(N3 - $C$2)^2</f>
+        <f>12-470*0.08*((N3 - 1.4)^2)</f>
         <v>0.20863999999999727</v>
       </c>
       <c r="O4">
-        <f>$A$2-$B$2*$D$2*(O3 - $C$2)^2</f>
-        <v>-1.5360000000000049</v>
+        <f>12/(1+470*0.08+2*470*0.08*(O3-1.4))</f>
+        <v>0.14333492594362157</v>
       </c>
       <c r="P4">
-        <f>$A$2-$B$2*$D$2*(P3 - $C$2)^2</f>
-        <v>-9.1500000000000021</v>
+        <f>12/(1+470*0.08+2*470*0.08*(P3-1.4))</f>
+        <v>0.12631578947368421</v>
       </c>
       <c r="Q4">
-        <f>$A$2-$B$2*$D$2*(Q3 - $C$2)^2</f>
-        <v>-17.117439999999995</v>
+        <f t="shared" ref="Q4:W4" si="2">12/(1+470*0.08+2*470*0.08*(Q3-1.4))</f>
+        <v>0.11453004504848441</v>
       </c>
       <c r="R4">
-        <f>$A$2-$B$2*$D$2*(R3 - $C$2)^2</f>
-        <v>-25.6</v>
+        <f t="shared" si="2"/>
+        <v>0.10544815465729349</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4" si="1">$A$2-$B$2*$D$2*(S3 - $C$2)^2</f>
-        <v>-35.587499999999999</v>
+        <f t="shared" si="2"/>
+        <v>9.7402597402597393E-2</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4" si="2">$A$2-$B$2*$D$2*(T3 - $C$2)^2</f>
-        <v>-47.693760000000026</v>
+        <f t="shared" si="2"/>
+        <v>8.9987401763753055E-2</v>
       </c>
       <c r="U4">
-        <f t="shared" ref="U4" si="3">$A$2-$B$2*$D$2*(U3 - $C$2)^2</f>
-        <v>-54.510640000000009</v>
+        <f t="shared" si="2"/>
+        <v>8.6570092918566391E-2</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="2"/>
+        <v>7.3764445537251047E-2</v>
       </c>
       <c r="W4">
-        <f t="shared" ref="W4" si="4">$A$2-$B$2*$D$2*(W3 - $C$2)^2</f>
-        <v>-109.82400000000004</v>
+        <f t="shared" si="2"/>
+        <v>6.8981375028742242E-2</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
       <c r="B5">
         <v>11.7</v>
       </c>
@@ -1281,6 +1567,99 @@
       </c>
       <c r="W6">
         <v>11.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <f>B6/B2</f>
+        <v>1.1702127659574468E-5</v>
+      </c>
+      <c r="C7">
+        <f>C6/B2</f>
+        <v>1.0638297872340426E-5</v>
+      </c>
+      <c r="D7">
+        <f>D6/B2</f>
+        <v>1.2340425531914893E-5</v>
+      </c>
+      <c r="E7">
+        <f>E6/B2</f>
+        <v>1.4893617021276596E-5</v>
+      </c>
+      <c r="F7">
+        <f>F6/470</f>
+        <v>3.3191489361702129E-5</v>
+      </c>
+      <c r="G7">
+        <f>G6/470</f>
+        <v>1.0680851063829788E-4</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:W7" si="3">H6/470</f>
+        <v>6.2127659574468083E-4</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>2.4893617021276592E-3</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>8.0638297872340434E-3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>1.4787234042553192E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>1.7234042553191487E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>2.0106382978723403E-2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>2.1382978723404257E-2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>2.3829787234042551E-2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>2.5042553191489361E-2</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="3"/>
+        <v>2.5148936170212768E-2</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>2.5208510638297873E-2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>2.5234042553191487E-2</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="3"/>
+        <v>2.5255319148936167E-2</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="3"/>
+        <v>2.5255319148936167E-2</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="3"/>
+        <v>2.5297872340425534E-2</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="3"/>
+        <v>2.5297872340425534E-2</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
